--- a/output/price_tash.xlsx
+++ b/output/price_tash.xlsx
@@ -396,16 +396,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>981.7660635228739</v>
+        <v>969.8363885960878</v>
       </c>
       <c r="C2">
-        <v>941.6666666666667</v>
+        <v>933.3333333333334</v>
       </c>
       <c r="D2">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E2">
-        <v>717.1717171717172</v>
+        <v>694.4444444444445</v>
       </c>
       <c r="F2">
         <v>1900</v>
@@ -418,19 +418,19 @@
         </is>
       </c>
       <c r="B3">
-        <v>1228.925211091078</v>
+        <v>1227.33263260257</v>
       </c>
       <c r="C3">
-        <v>1190.47619047619</v>
+        <v>1184.210526315789</v>
       </c>
       <c r="D3">
-        <v>737</v>
+        <v>811</v>
       </c>
       <c r="E3">
-        <v>715</v>
+        <v>732.5581395348837</v>
       </c>
       <c r="F3">
-        <v>2082.142857142857</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="4">
@@ -440,19 +440,19 @@
         </is>
       </c>
       <c r="B4">
-        <v>1317.038711415195</v>
+        <v>1295.52855708118</v>
       </c>
       <c r="C4">
-        <v>1273.333333333333</v>
+        <v>1253.700564971751</v>
       </c>
       <c r="D4">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="E4">
-        <v>724.3589743589744</v>
+        <v>723.0769230769231</v>
       </c>
       <c r="F4">
-        <v>2333.333333333333</v>
+        <v>2361.111111111111</v>
       </c>
     </row>
     <row r="5">
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>1224.406958222209</v>
+        <v>1208.029413846643</v>
       </c>
       <c r="C5">
-        <v>1199.253333333333</v>
+        <v>1168.965517241379</v>
       </c>
       <c r="D5">
-        <v>910</v>
+        <v>887</v>
       </c>
       <c r="E5">
-        <v>709.0909090909091</v>
+        <v>696.969696969697</v>
       </c>
       <c r="F5">
         <v>2000</v>
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="B6">
-        <v>1085.113799065101</v>
+        <v>1082.316680685615</v>
       </c>
       <c r="C6">
-        <v>1067.441860465116</v>
+        <v>1056.864375461937</v>
       </c>
       <c r="D6">
-        <v>915</v>
+        <v>704</v>
       </c>
       <c r="E6">
-        <v>714.2857142857143</v>
+        <v>695.6521739130435</v>
       </c>
       <c r="F6">
-        <v>1970.588235294118</v>
+        <v>1911.764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -506,19 +506,19 @@
         </is>
       </c>
       <c r="B7">
-        <v>963.0429051537228</v>
+        <v>944.7245919150984</v>
       </c>
       <c r="C7">
-        <v>941.6666666666666</v>
+        <v>923.6111111111111</v>
       </c>
       <c r="D7">
-        <v>871</v>
+        <v>773</v>
       </c>
       <c r="E7">
-        <v>708.3333333333334</v>
+        <v>695.2380952380952</v>
       </c>
       <c r="F7">
-        <v>2000</v>
+        <v>1722.222222222222</v>
       </c>
     </row>
     <row r="8">
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="B8">
-        <v>1216.37132399157</v>
+        <v>1213.37818103511</v>
       </c>
       <c r="C8">
-        <v>1186.356589147287</v>
+        <v>1192.928039702233</v>
       </c>
       <c r="D8">
-        <v>770</v>
+        <v>694</v>
       </c>
       <c r="E8">
-        <v>714.2857142857143</v>
+        <v>700</v>
       </c>
       <c r="F8">
-        <v>2000</v>
+        <v>1956.521739130435</v>
       </c>
     </row>
     <row r="9">
@@ -550,19 +550,19 @@
         </is>
       </c>
       <c r="B9">
-        <v>1115.433029673039</v>
+        <v>1098.788952651327</v>
       </c>
       <c r="C9">
-        <v>1102.734250079949</v>
+        <v>1089.74358974359</v>
       </c>
       <c r="D9">
-        <v>534</v>
+        <v>437</v>
       </c>
       <c r="E9">
-        <v>708.6614173228346</v>
+        <v>702.3809523809524</v>
       </c>
       <c r="F9">
-        <v>1923.076923076923</v>
+        <v>1733.333333333333</v>
       </c>
     </row>
     <row r="10">
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B10">
-        <v>1314.325473217498</v>
+        <v>1340.818438868443</v>
       </c>
       <c r="C10">
-        <v>1287.241379310345</v>
+        <v>1306.666666666667</v>
       </c>
       <c r="D10">
-        <v>711</v>
+        <v>802</v>
       </c>
       <c r="E10">
-        <v>722.8260869565217</v>
+        <v>735.7142857142857</v>
       </c>
       <c r="F10">
-        <v>2214.285714285714</v>
+        <v>2384.615384615385</v>
       </c>
     </row>
     <row r="11">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B11">
-        <v>1100.150082097545</v>
+        <v>1092.426804565622</v>
       </c>
       <c r="C11">
-        <v>1074.074074074074</v>
+        <v>1060.30303030303</v>
       </c>
       <c r="D11">
-        <v>977</v>
+        <v>938</v>
       </c>
       <c r="E11">
-        <v>716.6666666666666</v>
+        <v>702.1276595744681</v>
       </c>
       <c r="F11">
         <v>2000</v>
@@ -616,19 +616,19 @@
         </is>
       </c>
       <c r="B12">
-        <v>1185.273629274601</v>
+        <v>1157.598479874316</v>
       </c>
       <c r="C12">
-        <v>1145.833333333333</v>
+        <v>1117.914438502674</v>
       </c>
       <c r="D12">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="E12">
-        <v>714.2857142857143</v>
+        <v>698.7179487179487</v>
       </c>
       <c r="F12">
-        <v>2350</v>
+        <v>2214.285714285714</v>
       </c>
     </row>
   </sheetData>
